--- a/graph_generation/results_prelim/gpt4/level_10/k_3.xlsx
+++ b/graph_generation/results_prelim/gpt4/level_10/k_3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>prompt</t>
   </si>
@@ -31,7 +31,7 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 16 nodes labelled A to P. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
 Consider some examples
 Example 1: What is the least cost path to travel first from node A to node I, and then from node node I to node J? Return 2 sequences of nodes in response.
    A B C D E F G H I J
@@ -86,32 +86,34 @@
 Solution: Path from A to K: A -&gt; B -&gt; E -&gt; G -&gt; K
 Path from K to S: K -&gt; G -&gt; E -&gt; B -&gt; A -&gt; S
  Given these examples, answer the following quesiton.
-What is the least cost path to travel first from node 0 to node E, and then from node node E to node 15? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P
- A 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 1 0 3 5 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 5 0 0 3 0 4 0 0 0 0 0 0 1
- G 0 0 0 0 0 3 0 2 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 4 0 0 0 3 4 5 0 0 0 0
- J 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- K 1 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 5 0 0 0 3 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 4 0
+What is the least cost path to travel first from node A to node E, and then from node node E to node N? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 1 0 3 0 0 0 0 0 0 0 0 4
+ C 0 1 0 1 0 0 0 0 0 0 0 0 0 0
+ D 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 3 0 0 0 2 2 0 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 2 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 4 0 2 0 0 0
+ I 0 0 0 0 0 0 0 4 0 4 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0
+ K 0 0 0 0 0 0 0 2 0 0 0 5 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 4 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 4
+ N 0 4 0 0 0 0 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t>Path from A to E: A -&gt; C -&gt; D -&gt; E
-Path from E to P: E -&gt; D -&gt; F -&gt; P</t>
-  </si>
-  <si>
-    <t>Correct</t>
+    <t>Path from A to E: A -&gt; B -&gt; E
+Path from E to N: E -&gt; B -&gt; N</t>
+  </si>
+  <si>
+    <t>Path from A to E: A -&gt; B -&gt; E
+Path from E to N: E -&gt; G -&gt; H -&gt; K -&gt; L -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t>Wrong</t>
   </si>
   <si>
     <t>N/A</t>
@@ -503,13 +505,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
